--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034BFF12-8F6D-4A91-BFCC-D91DDA4DD6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB3B51-747C-408C-949F-FDAF8CB1FCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_스킬 정보" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,9 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>인덱스</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>스킬 그룹</t>
-  </si>
-  <si>
-    <t>차후 확장성 고려</t>
   </si>
   <si>
     <t>Skill_Type</t>
@@ -233,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Single</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,27 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_Rune_Group1~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 룬 그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Rune_Group1</t>
-  </si>
-  <si>
-    <t>Skill_Rune_Group2</t>
-  </si>
-  <si>
-    <t>Skill_Rune_Group3</t>
-  </si>
-  <si>
-    <t>스킬 룬 그룹(Rune 테이블 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화염구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +284,10 @@
   </si>
   <si>
     <t>NonTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 스킬 고려</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,17 +353,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,13 +379,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -444,31 +403,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,15 +443,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="계산" xfId="1" builtinId="22"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDD6B7-32B2-4A25-9AA8-FCB3F86E667D}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,16 +739,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -822,13 +756,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -836,142 +770,142 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:5" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
@@ -980,21 +914,21 @@
         <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -1005,10 +939,10 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1019,38 +953,38 @@
         <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1058,24 +992,10 @@
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,39 +1005,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1125,219 +1044,198 @@
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>60</v>
+      <c r="C2" s="9">
+        <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="9">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
         <v>0</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9">
+        <v>100</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>100</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9">
-        <v>3</v>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
-        <v>120</v>
-      </c>
-      <c r="P3" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>1</v>
-      </c>
-      <c r="R3" s="12">
-        <v>2</v>
-      </c>
-      <c r="S3" s="12">
-        <v>3</v>
-      </c>
-      <c r="T3" s="12">
-        <v>10</v>
-      </c>
-      <c r="U3" s="12">
-        <v>11</v>
-      </c>
-      <c r="V3" s="12">
+      <c r="S3">
         <v>12</v>
       </c>
-      <c r="W3" s="12">
+      <c r="T3">
         <v>13</v>
       </c>
-      <c r="X3" s="12">
+      <c r="U3">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB3B51-747C-408C-949F-FDAF8CB1FCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AE16A-2548-4DA0-B9CE-D1BD3F3F6BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_스킬 정보" sheetId="2" r:id="rId1"/>
     <sheet name="SkillInfo" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Skill">'_스킬 정보'!$B$3:$E$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,9 +76,6 @@
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>_Name</t>
   </si>
   <si>
     <t>_Name</t>
@@ -255,10 +277,6 @@
   </si>
   <si>
     <t>Tag3</t>
-  </si>
-  <si>
-    <t>Tag1~5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tag4</t>
@@ -723,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDD6B7-32B2-4A25-9AA8-FCB3F86E667D}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,16 +757,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -756,246 +774,302 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="48" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,97 +1085,119 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="6.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>66</v>
+      <c r="A1" s="10" t="str" cm="1">
+        <f t="array" ref="A1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Index</v>
+      </c>
+      <c r="B1" s="10" t="str" cm="1">
+        <f t="array" ref="B1">INDEX(Skill,COLUMN(),1)</f>
+        <v>_Name</v>
+      </c>
+      <c r="C1" s="10" t="str" cm="1">
+        <f t="array" ref="C1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Group</v>
+      </c>
+      <c r="D1" s="10" t="str" cm="1">
+        <f t="array" ref="D1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Name</v>
+      </c>
+      <c r="E1" s="10" t="str" cm="1">
+        <f t="array" ref="E1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Desc</v>
+      </c>
+      <c r="F1" s="10" t="str" cm="1">
+        <f t="array" ref="F1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Type</v>
+      </c>
+      <c r="G1" s="10" t="str" cm="1">
+        <f t="array" ref="G1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_DetailType</v>
+      </c>
+      <c r="H1" s="10" t="str" cm="1">
+        <f t="array" ref="H1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_DetailType_Cost</v>
+      </c>
+      <c r="I1" s="10" t="str" cm="1">
+        <f t="array" ref="I1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Cooltime</v>
+      </c>
+      <c r="J1" s="10" t="str" cm="1">
+        <f t="array" ref="J1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Target</v>
+      </c>
+      <c r="K1" s="10" t="str" cm="1">
+        <f t="array" ref="K1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Dmg_Type</v>
+      </c>
+      <c r="L1" s="10" t="str" cm="1">
+        <f t="array" ref="L1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Dmg_num</v>
+      </c>
+      <c r="M1" s="10" t="str" cm="1">
+        <f t="array" ref="M1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Bullet</v>
+      </c>
+      <c r="N1" s="10" t="str" cm="1">
+        <f t="array" ref="N1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Bullet_Spd</v>
+      </c>
+      <c r="O1" s="10" t="str" cm="1">
+        <f t="array" ref="O1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Bullet_Size</v>
+      </c>
+      <c r="P1" s="10" t="str" cm="1">
+        <f t="array" ref="P1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_Equip_Rune</v>
+      </c>
+      <c r="Q1" s="10" t="str" cm="1">
+        <f t="array" ref="Q1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Tag1</v>
+      </c>
+      <c r="R1" s="10" t="str" cm="1">
+        <f t="array" ref="R1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Tag2</v>
+      </c>
+      <c r="S1" s="10" t="str" cm="1">
+        <f t="array" ref="S1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Tag3</v>
+      </c>
+      <c r="T1" s="10" t="str" cm="1">
+        <f t="array" ref="T1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Tag4</v>
+      </c>
+      <c r="U1" s="10" t="str" cm="1">
+        <f t="array" ref="U1">INDEX(Skill,COLUMN(),1)</f>
+        <v>Tag5</v>
+      </c>
+      <c r="V1" s="10" t="str" cm="1">
+        <f t="array" ref="V1">INDEX(Skill,COLUMN(),1)</f>
+        <v>SkillNode</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1109,66 +1205,66 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>100</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9">
-        <v>100</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="R2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="U2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1177,63 +1273,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C3">
+      <c r="K3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>120</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>10</v>
+      </c>
+      <c r="R3" s="7">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>120</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>11</v>
-      </c>
-      <c r="S3">
+      <c r="S3" s="7">
         <v>12</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="7">
         <v>13</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="7">
         <v>14</v>
       </c>
     </row>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben94\OneDrive\문서\GitHub\ProjectB\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\유니티참고용\Project\ProjectB\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52AE16A-2548-4DA0-B9CE-D1BD3F3F6BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_스킬 정보" sheetId="2" r:id="rId1"/>
-    <sheet name="SkillInfo" sheetId="1" r:id="rId2"/>
+    <sheet name="Skill_Info" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Skill">'_스킬 정보'!$B$3:$E$24</definedName>
@@ -40,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -312,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDD6B7-32B2-4A25-9AA8-FCB3F86E667D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1078,14 +1077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Skill">'_스킬 정보'!$B$3:$E$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tag1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,6 +302,13 @@
   <si>
     <t>다중 스킬 고려</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/Prefab/Entity/MonsterA/Event/atk.asset</t>
   </si>
 </sst>
 </file>
@@ -802,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -992,13 +995,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -1006,13 +1009,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -1020,13 +1023,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -1034,13 +1037,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -1048,13 +1051,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -1062,10 +1065,10 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
@@ -1078,13 +1081,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,11 +1212,11 @@
       <c r="C2" s="7">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>56</v>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
@@ -1248,20 +1251,20 @@
       <c r="P2" s="7">
         <v>3</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>63</v>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>2</v>
@@ -1272,19 +1275,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>56</v>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>54</v>
@@ -1296,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>1</v>
@@ -1330,6 +1333,74 @@
       </c>
       <c r="U3" s="7">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7">
+        <v>101</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>100</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,9 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Data/GameResources/Prefab/Entity/Player/atk.asset</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -143,24 +140,6 @@
   </si>
   <si>
     <t>Skill_Dmg_num</t>
-  </si>
-  <si>
-    <t>Skill_Bullet</t>
-  </si>
-  <si>
-    <t>스킬의 투사체 개수</t>
-  </si>
-  <si>
-    <t>Skill_Bullet_Spd</t>
-  </si>
-  <si>
-    <t>스킬의 투사체 속도</t>
-  </si>
-  <si>
-    <t>Skill_Bullet_Size</t>
-  </si>
-  <si>
-    <t>스킬의 투사체 크기</t>
   </si>
   <si>
     <t>Skill_Equip_Rune</t>
@@ -205,12 +184,6 @@
   </si>
   <si>
     <t>Skill_Dmg_Type의 X%</t>
-  </si>
-  <si>
-    <t>스킬의 투사체 이동속도(기본 1)</t>
-  </si>
-  <si>
-    <t>스킬의 투사체 크기(기본 1)</t>
   </si>
   <si>
     <t>스킬의 세부 타입
@@ -308,7 +281,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Data/GameResources/Prefab/Entity/MonsterA/Event/atk.asset</t>
+    <t>Skill_IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/atk.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/MonsterA/atk.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_5.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_TargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect 테이블 참조(/로 인덱스 구분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 스킬 애니메이션 노드 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -745,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,319 +833,323 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1081,13 +1159,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,19 +1175,17 @@
     <col min="3" max="3" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="6.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="6.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -1133,73 +1209,73 @@
         <f t="array" ref="E1">INDEX(Skill,COLUMN(),1)</f>
         <v>Skill_Desc</v>
       </c>
-      <c r="F1" s="10" t="str" cm="1">
-        <f t="array" ref="F1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Type</v>
+      <c r="F1" s="10" t="str">
+        <f>INDEX(Skill,COLUMN(),1)</f>
+        <v>Skill_IconPath</v>
       </c>
       <c r="G1" s="10" t="str" cm="1">
         <f t="array" ref="G1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_DetailType</v>
+        <v>Skill_Type</v>
       </c>
       <c r="H1" s="10" t="str" cm="1">
         <f t="array" ref="H1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_DetailType_Cost</v>
+        <v>Skill_DetailType</v>
       </c>
       <c r="I1" s="10" t="str" cm="1">
         <f t="array" ref="I1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Cooltime</v>
+        <v>Skill_DetailType_Cost</v>
       </c>
       <c r="J1" s="10" t="str" cm="1">
         <f t="array" ref="J1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Target</v>
+        <v>Skill_Cooltime</v>
       </c>
       <c r="K1" s="10" t="str" cm="1">
         <f t="array" ref="K1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Dmg_Type</v>
+        <v>Skill_Target</v>
       </c>
       <c r="L1" s="10" t="str" cm="1">
         <f t="array" ref="L1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Dmg_num</v>
+        <v>Skill_Dmg_Type</v>
       </c>
       <c r="M1" s="10" t="str" cm="1">
         <f t="array" ref="M1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Bullet</v>
+        <v>Skill_Dmg_num</v>
       </c>
       <c r="N1" s="10" t="str" cm="1">
         <f t="array" ref="N1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Bullet_Spd</v>
+        <v>Skill_TargetCount</v>
       </c>
       <c r="O1" s="10" t="str" cm="1">
         <f t="array" ref="O1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Bullet_Size</v>
+        <v>Skill_Equip_Rune</v>
       </c>
       <c r="P1" s="10" t="str" cm="1">
         <f t="array" ref="P1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Skill_Equip_Rune</v>
+        <v>Tag1</v>
       </c>
       <c r="Q1" s="10" t="str" cm="1">
         <f t="array" ref="Q1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Tag1</v>
+        <v>Tag2</v>
       </c>
       <c r="R1" s="10" t="str" cm="1">
         <f t="array" ref="R1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Tag2</v>
+        <v>Tag3</v>
       </c>
       <c r="S1" s="10" t="str" cm="1">
         <f t="array" ref="S1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Tag3</v>
+        <v>Tag4</v>
       </c>
       <c r="T1" s="10" t="str" cm="1">
         <f t="array" ref="T1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Tag4</v>
+        <v>Tag5</v>
       </c>
       <c r="U1" s="10" t="str" cm="1">
         <f t="array" ref="U1">INDEX(Skill,COLUMN(),1)</f>
-        <v>Tag5</v>
+        <v>SkillNode</v>
       </c>
       <c r="V1" s="10" t="str" cm="1">
         <f t="array" ref="V1">INDEX(Skill,COLUMN(),1)</f>
-        <v>SkillNode</v>
+        <v>SkillEffects</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1207,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <v>10</v>
@@ -1219,40 +1295,40 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
+        <v>46</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>100</v>
       </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
       <c r="N2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="7">
         <v>1</v>
       </c>
       <c r="P2" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="7">
         <v>0</v>
@@ -1260,14 +1336,14 @@
       <c r="S2" s="7">
         <v>0</v>
       </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>2</v>
+      <c r="T2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1275,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" s="7">
         <v>11</v>
@@ -1287,52 +1363,55 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7">
+        <v>58</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>120</v>
       </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
       <c r="N3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P3" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R3" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S3" s="7">
-        <v>12</v>
-      </c>
-      <c r="T3" s="7">
-        <v>13</v>
-      </c>
-      <c r="U3" s="7">
         <v>14</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1340,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7">
         <v>101</v>
@@ -1352,31 +1431,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
         <v>0.2</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
+        <v>46</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
         <v>100</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
         <v>1</v>
@@ -1385,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7">
         <v>0</v>
@@ -1393,15 +1472,358 @@
       <c r="S4" s="7">
         <v>0</v>
       </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="T4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>110001</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>100</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>110002</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>120</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>12</v>
+      </c>
+      <c r="R6" s="7">
+        <v>13</v>
+      </c>
+      <c r="S6" s="7">
+        <v>14</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="7">
+        <v>100003</v>
+      </c>
+      <c r="E7" s="7">
+        <v>110003</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>100</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="7">
+        <v>100004</v>
+      </c>
+      <c r="E8" s="7">
+        <v>110004</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100005</v>
+      </c>
+      <c r="E9" s="7">
+        <v>110005</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>120</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>12</v>
+      </c>
+      <c r="R9" s="7">
+        <v>13</v>
+      </c>
+      <c r="S9" s="7">
+        <v>14</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t>해당 스킬 애니메이션 노드 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1173,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,8 +1344,8 @@
       <c r="S2" s="7">
         <v>0</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>65</v>
+      <c r="T2" s="9">
+        <v>0</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1472,8 +1480,8 @@
       <c r="S4" s="7">
         <v>0</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>66</v>
+      <c r="T4" s="9">
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>66</v>
@@ -1502,7 +1510,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>45</v>
@@ -1511,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>46</v>
@@ -1540,8 +1548,8 @@
       <c r="S5" s="7">
         <v>0</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>65</v>
+      <c r="T5" s="9">
+        <v>0</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>65</v>
@@ -1582,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>1</v>
@@ -1611,8 +1619,8 @@
       <c r="T6" s="9">
         <v>0</v>
       </c>
-      <c r="U6" s="9">
-        <v>0</v>
+      <c r="U6" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="V6" s="9">
         <v>0</v>
@@ -1638,7 +1646,7 @@
         <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>45</v>
@@ -1647,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>46</v>
@@ -1676,8 +1684,8 @@
       <c r="S7" s="7">
         <v>0</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>66</v>
+      <c r="T7" s="9">
+        <v>0</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>66</v>
@@ -1706,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>45</v>
@@ -1715,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>46</v>
@@ -1744,8 +1752,8 @@
       <c r="S8" s="7">
         <v>0</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>65</v>
+      <c r="T8" s="9">
+        <v>0</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>65</v>
@@ -1786,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>1</v>
@@ -1815,8 +1823,8 @@
       <c r="T9" s="9">
         <v>0</v>
       </c>
-      <c r="U9" s="9">
-        <v>0</v>
+      <c r="U9" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t>해당 스킬 애니메이션 노드 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1170,10 +1178,10 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1415,8 +1423,8 @@
       <c r="T3" s="9">
         <v>0</v>
       </c>
-      <c r="U3" s="9">
-        <v>0</v>
+      <c r="U3" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
@@ -1794,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>1</v>
@@ -1824,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Skill_Info" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Skill_Info!$A$1:$V$9</definedName>
     <definedName name="Skill">'_스킬 정보'!$B$3:$E$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +399,22 @@
   </si>
   <si>
     <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1178,10 +1195,10 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1217,10 @@
     <col min="12" max="12" width="15.75" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="6.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="7" customWidth="1"/>
+    <col min="17" max="18" width="12.125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="7" customWidth="1"/>
     <col min="20" max="22" width="10.875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,22 +1358,22 @@
         <v>3</v>
       </c>
       <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="9">
-        <v>0</v>
+      <c r="P2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1406,22 +1426,22 @@
         <v>3</v>
       </c>
       <c r="O3" s="7">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>12</v>
-      </c>
-      <c r="R3" s="7">
-        <v>13</v>
-      </c>
-      <c r="S3" s="7">
-        <v>14</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>65</v>
@@ -1476,20 +1496,20 @@
       <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
-        <v>0</v>
+      <c r="P4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>66</v>
@@ -1542,22 +1562,22 @@
         <v>3</v>
       </c>
       <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>65</v>
@@ -1610,22 +1630,22 @@
         <v>3</v>
       </c>
       <c r="O6" s="7">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>12</v>
-      </c>
-      <c r="R6" s="7">
-        <v>13</v>
-      </c>
-      <c r="S6" s="7">
-        <v>14</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>87</v>
@@ -1678,22 +1698,22 @@
         <v>0</v>
       </c>
       <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>66</v>
@@ -1746,22 +1766,22 @@
         <v>3</v>
       </c>
       <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>65</v>
@@ -1814,22 +1834,22 @@
         <v>3</v>
       </c>
       <c r="O9" s="7">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>12</v>
-      </c>
-      <c r="R9" s="7">
-        <v>13</v>
-      </c>
-      <c r="S9" s="7">
-        <v>14</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>89</v>
@@ -1842,6 +1862,7 @@
       <c r="A10" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V9"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/MonsterA/skill.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,10 +1203,10 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1724,7 @@
         <v>93</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="V7" s="9">
         <v>0</v>
@@ -1784,7 +1792,7 @@
         <v>93</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,18 +390,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +416,9 @@
   <si>
     <t>Assets/Data/GameResources/EventGraph/MonsterA/skill.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click_Target</t>
   </si>
 </sst>
 </file>
@@ -860,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1203,10 +1198,10 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1437,19 +1432,19 @@
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>65</v>
@@ -1505,19 +1500,19 @@
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>66</v>
@@ -1573,19 +1568,19 @@
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>65</v>
@@ -1626,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>1</v>
@@ -1641,19 +1636,19 @@
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>87</v>
@@ -1709,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="V7" s="9">
         <v>0</v>
@@ -1777,22 +1772,22 @@
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>
@@ -1830,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>1</v>
@@ -1845,22 +1840,22 @@
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,39 +386,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click_Target</t>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill5.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill4.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill1.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/MonsterA/skill.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click_Target</t>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill3.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1201,7 +1205,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1358,25 +1362,25 @@
         <v>100</v>
       </c>
       <c r="N2" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="7">
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1432,19 +1436,19 @@
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>65</v>
@@ -1494,25 +1498,25 @@
         <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="7">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>66</v>
@@ -1568,22 +1572,22 @@
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="V5" s="9">
         <v>0</v>
@@ -1618,10 +1622,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>1</v>
@@ -1636,22 +1640,22 @@
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="V6" s="9">
         <v>0</v>
@@ -1704,22 +1708,22 @@
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V7" s="9">
         <v>0</v>
@@ -1772,19 +1776,19 @@
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>93</v>
@@ -1822,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>1</v>
@@ -1840,22 +1844,22 @@
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,59 +330,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_5.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_TargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffect 테이블 참조(/로 인덱스 구분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 스킬 애니메이션 노드 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click_Target</t>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill4.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill1.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill3.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/Data/Texture/Monk/Icons/Monk_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_5.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_TargetCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffect 테이블 참조(/로 인덱스 구분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 스킬 애니메이션 노드 경로</t>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,38 +445,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click_Target</t>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Data/GameResources/EventGraph/Player/skill5.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill4.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill1.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill2.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill3.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,13 +1099,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1171,7 +1203,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>64</v>
@@ -1179,16 +1211,16 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1237,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
@@ -1368,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1406,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>57</v>
@@ -1436,19 +1468,19 @@
         <v>3</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>65</v>
@@ -1474,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>0</v>
@@ -1504,19 +1536,19 @@
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>66</v>
@@ -1539,7 +1571,7 @@
         <v>100001</v>
       </c>
       <c r="E5" s="7">
-        <v>110001</v>
+        <v>200001</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>72</v>
@@ -1572,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V5" s="9">
         <v>0</v>
@@ -1607,10 +1639,10 @@
         <v>100002</v>
       </c>
       <c r="E6" s="7">
-        <v>110002</v>
+        <v>200002</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>57</v>
@@ -1625,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>1</v>
@@ -1640,22 +1672,22 @@
         <v>3</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="R6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V6" s="9">
         <v>0</v>
@@ -1675,10 +1707,10 @@
         <v>100003</v>
       </c>
       <c r="E7" s="7">
-        <v>110003</v>
+        <v>200003</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>57</v>
@@ -1708,22 +1740,22 @@
         <v>3</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V7" s="9">
         <v>0</v>
@@ -1743,10 +1775,10 @@
         <v>100004</v>
       </c>
       <c r="E8" s="7">
-        <v>110004</v>
+        <v>200004</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>57</v>
@@ -1776,22 +1808,22 @@
         <v>3</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>
@@ -1811,10 +1843,10 @@
         <v>100005</v>
       </c>
       <c r="E9" s="7">
-        <v>110005</v>
+        <v>200005</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>57</v>
@@ -1829,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>1</v>
@@ -1844,29 +1876,94 @@
         <v>3</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="R9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>102001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>202001</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="7">
+        <v>100</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V9"/>

--- a/Table/Skill.xlsx
+++ b/Table/Skill.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,39 +421,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/GameResources/EventGraph/Player/skill5.asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_40.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/Data/Texture/Monk/Icons/Monk_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Near</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/GameResources/EventGraph/Player/skill5.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,13 +1239,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1250,12 +1258,12 @@
     <col min="6" max="6" width="10.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="7" customWidth="1"/>
     <col min="10" max="10" width="14.375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="7" customWidth="1"/>
+    <col min="14" max="14" width="22.875" style="7" customWidth="1"/>
     <col min="15" max="15" width="18.375" style="7" customWidth="1"/>
     <col min="16" max="16" width="11.625" style="7" customWidth="1"/>
     <col min="17" max="18" width="12.125" style="7" customWidth="1"/>
@@ -1891,18 +1899,18 @@
         <v>88</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="7">
         <v>2001</v>
@@ -1914,10 +1922,10 @@
         <v>202001</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>45</v>
@@ -1926,13 +1934,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -1944,16 +1952,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="S10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>88</v>
@@ -1962,6 +1970,74 @@
         <v>88</v>
       </c>
       <c r="V10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>3001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>103001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>203001</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>100</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="9">
         <v>0</v>
       </c>
     </row>
